--- a/rne_report/documents/8_계좌정보/1553-시상금 계좌정보.xlsx
+++ b/rne_report/documents/8_계좌정보/1553-시상금 계좌정보.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Kevin_FCSH_controller\rne_report\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Kevin_FCSH_controller\rne_report\documents\8_계좌정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C96FD1-EF7F-4DA3-9DC6-50BCF3A34C72}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C386376-CB62-4DDA-A50E-005FB1526762}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="228" yWindow="11040" windowWidth="26712" windowHeight="13848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,14 @@
   </si>
   <si>
     <t>404002-04-018227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농협</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221119-51-110513</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,26 +864,26 @@
   <dimension ref="B1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="4" width="7.25" customWidth="1"/>
-    <col min="6" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" customWidth="1"/>
+    <col min="3" max="4" width="7.19921875" customWidth="1"/>
+    <col min="6" max="7" width="11.8984375" customWidth="1"/>
+    <col min="8" max="8" width="22.3984375" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="11.8984375" customWidth="1"/>
+    <col min="13" max="13" width="10.19921875" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:14" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
@@ -912,7 +920,7 @@
       </c>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="2:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
@@ -953,7 +961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
@@ -994,7 +1002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
@@ -1035,8 +1043,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:14" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:14" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1070,7 +1078,7 @@
       </c>
       <c r="N7" s="30"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1092,8 +1100,12 @@
       <c r="I8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1104,7 +1116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1118,7 +1130,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1132,7 +1144,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1146,7 +1158,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1160,7 +1172,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1174,7 +1186,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1188,7 +1200,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1202,7 +1214,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1216,7 +1228,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1230,7 +1242,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1244,7 +1256,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1258,7 +1270,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1272,7 +1284,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1286,7 +1298,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1300,7 +1312,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1314,7 +1326,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1328,7 +1340,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
